--- a/Output/1988/Alabama/Alabama.xlsx
+++ b/Output/1988/Alabama/Alabama.xlsx
@@ -1526,9 +1526,6 @@
     <t>Subscriber counts, miles of plant, homes passed &amp; total homes in franchised area Include Information for Clanton, Prattville &amp; Sylacauga, AL.</t>
   </si>
   <si>
-    <t>96 (Section &amp; Dutton); Outside TV markets (Ralnsvllle, Fyffe &amp; Shiloh)</t>
-  </si>
-  <si>
     <t>Outside TV Markets</t>
   </si>
   <si>
@@ -1637,6 +1634,10 @@
   </si>
   <si>
     <t>40 (Alabaster, Helena, Pelham &amp; NW portion of Shelby County); N.A. (Cahaba Valley)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>96 (Section &amp; Dutton); Outside TV markets (Rainsville, Fyffe &amp; Shiloh)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3356,7 +3357,7 @@
         <v>488</v>
       </c>
       <c r="B19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4162,7 +4163,7 @@
         <v>5</v>
       </c>
       <c r="Y29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
@@ -4318,7 +4319,7 @@
         <v>488</v>
       </c>
       <c r="B32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -9498,7 +9499,7 @@
         <v>488</v>
       </c>
       <c r="B102" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -11340,7 +11341,7 @@
         <v>27</v>
       </c>
       <c r="Y126" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.2">
@@ -11795,7 +11796,7 @@
         <v>488</v>
       </c>
       <c r="B133" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -11861,7 +11862,7 @@
         <v>14</v>
       </c>
       <c r="Y133" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.2">
@@ -12009,7 +12010,7 @@
         <v>30</v>
       </c>
       <c r="Y135" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.2">
@@ -12313,7 +12314,7 @@
         <v>488</v>
       </c>
       <c r="B140" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -12453,7 +12454,7 @@
         <v>1</v>
       </c>
       <c r="Y141" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.2">
@@ -12757,7 +12758,7 @@
         <v>488</v>
       </c>
       <c r="B146" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -12979,7 +12980,7 @@
         <v>488</v>
       </c>
       <c r="B149" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -13566,7 +13567,7 @@
         <v>489</v>
       </c>
       <c r="Z156" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.2">
@@ -14240,7 +14241,7 @@
         <v>488</v>
       </c>
       <c r="B166" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -14682,7 +14683,7 @@
         <v>488</v>
       </c>
       <c r="B189" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -15514,7 +15515,7 @@
         <v>1</v>
       </c>
       <c r="D248" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -15724,7 +15725,7 @@
         <v>1</v>
       </c>
       <c r="D263" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -15738,7 +15739,7 @@
         <v>1</v>
       </c>
       <c r="D264" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -15766,7 +15767,7 @@
         <v>1</v>
       </c>
       <c r="D266" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -16012,7 +16013,7 @@
         <v>488</v>
       </c>
       <c r="B284" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -16312,7 +16313,7 @@
         <v>1</v>
       </c>
       <c r="D305" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -16894,7 +16895,7 @@
         <v>488</v>
       </c>
       <c r="B347" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -17020,7 +17021,7 @@
         <v>488</v>
       </c>
       <c r="B356" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C356">
         <v>1</v>
@@ -17068,7 +17069,7 @@
         <v>1</v>
       </c>
       <c r="D359" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -17082,7 +17083,7 @@
         <v>1</v>
       </c>
       <c r="D360" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -17090,7 +17091,7 @@
         <v>488</v>
       </c>
       <c r="B361" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -17104,7 +17105,7 @@
         <v>488</v>
       </c>
       <c r="B362" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -17118,7 +17119,7 @@
         <v>488</v>
       </c>
       <c r="B363" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -17132,13 +17133,13 @@
         <v>488</v>
       </c>
       <c r="B364" t="s">
+        <v>505</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364" t="s">
         <v>506</v>
-      </c>
-      <c r="C364">
-        <v>1</v>
-      </c>
-      <c r="D364" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -17146,7 +17147,7 @@
         <v>488</v>
       </c>
       <c r="B365" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -17160,13 +17161,13 @@
         <v>488</v>
       </c>
       <c r="B366" t="s">
+        <v>508</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366" t="s">
         <v>509</v>
-      </c>
-      <c r="C366">
-        <v>1</v>
-      </c>
-      <c r="D366" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -17174,7 +17175,7 @@
         <v>488</v>
       </c>
       <c r="B367" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -17188,7 +17189,7 @@
         <v>488</v>
       </c>
       <c r="B368" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -17362,7 +17363,7 @@
         <v>1</v>
       </c>
       <c r="D380" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -17558,7 +17559,7 @@
         <v>1</v>
       </c>
       <c r="D394" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -17670,7 +17671,7 @@
         <v>1</v>
       </c>
       <c r="D402" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
